--- a/Paper_resultados/Cox_model/Output/Univariate_model/Univariate_models.xlsx
+++ b/Paper_resultados/Cox_model/Output/Univariate_model/Univariate_models.xlsx
@@ -419,7 +419,7 @@
         <v>2.673569789443826</v>
       </c>
       <c r="E3">
-        <v>1.032708350176064e-019</v>
+        <v>1.032708350176064e-19</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>6.132139117434177</v>
       </c>
       <c r="E4">
-        <v>2.537071651792615e-032</v>
+        <v>2.537071651792615e-32</v>
       </c>
     </row>
   </sheetData>
